--- a/my_dcgo/public/app/examples/dcGO - EFO 0000540 - Pfam.xlsx
+++ b/my_dcgo/public/app/examples/dcGO - EFO 0000540 - Pfam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hfang/Sites/XGR/dcGO-site/app/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFF7B00-42F7-0441-8590-A1AA305E255C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FD01A1-BE12-F140-B720-988B56E696F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="2340" windowWidth="18680" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="25600" windowHeight="16300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>dcGO - Protein domains per term</t>
   </si>
@@ -49,10 +49,10 @@
     <t>Immunoglobulin C1-set domain</t>
   </si>
   <si>
-    <t>  PF14672</t>
-  </si>
-  <si>
-    <t>Late cornified envelope</t>
+    <t>  PF00969</t>
+  </si>
+  <si>
+    <t>Class II histocompatibility antigen, beta domain</t>
   </si>
   <si>
     <t>  PF00605</t>
@@ -61,76 +61,100 @@
     <t>Interferon regulatory factor transcription factor</t>
   </si>
   <si>
+    <t>  PF01023</t>
+  </si>
+  <si>
+    <t>S-100/ICaBP type calcium binding domain</t>
+  </si>
+  <si>
+    <t>  PF01582</t>
+  </si>
+  <si>
+    <t>TIR domain</t>
+  </si>
+  <si>
+    <t>  PF00017</t>
+  </si>
+  <si>
+    <t>SH2 domain</t>
+  </si>
+  <si>
+    <t>  PF00229</t>
+  </si>
+  <si>
+    <t>TNF(Tumour Necrosis Factor) family</t>
+  </si>
+  <si>
+    <t>  PF00020</t>
+  </si>
+  <si>
+    <t>TNFR/NGFR cysteine-rich region</t>
+  </si>
+  <si>
+    <t>  PF00048</t>
+  </si>
+  <si>
+    <t>Small cytokines (intecrine/chemokine), interleukin-8 like</t>
+  </si>
+  <si>
+    <t>  PF01108</t>
+  </si>
+  <si>
+    <t>Tissue factor</t>
+  </si>
+  <si>
+    <t>  PF00619</t>
+  </si>
+  <si>
+    <t>Caspase recruitment domain</t>
+  </si>
+  <si>
+    <t>  PF00008</t>
+  </si>
+  <si>
+    <t>EGF-like domain</t>
+  </si>
+  <si>
+    <t>  PF03770</t>
+  </si>
+  <si>
+    <t>Inositol polyphosphate kinase</t>
+  </si>
+  <si>
+    <t>  PF01017</t>
+  </si>
+  <si>
+    <t>STAT protein, all-alpha domain</t>
+  </si>
+  <si>
+    <t>  PF02864</t>
+  </si>
+  <si>
+    <t>STAT protein, DNA binding domain</t>
+  </si>
+  <si>
+    <t>  PF02865</t>
+  </si>
+  <si>
+    <t>STAT protein, protein interaction domain</t>
+  </si>
+  <si>
+    <t>  PF09294</t>
+  </si>
+  <si>
+    <t>Interferon-alpha/beta receptor, fibronectin type III</t>
+  </si>
+  <si>
     <t>  PF10401</t>
   </si>
   <si>
     <t>Interferon-regulatory factor 3</t>
   </si>
   <si>
-    <t>  PF14820</t>
-  </si>
-  <si>
-    <t>Small proline-rich 2</t>
-  </si>
-  <si>
-    <t>  PF01023</t>
-  </si>
-  <si>
-    <t>S-100/ICaBP type calcium binding domain</t>
-  </si>
-  <si>
-    <t>  PF00619</t>
-  </si>
-  <si>
-    <t>Caspase recruitment domain</t>
-  </si>
-  <si>
-    <t>  PF00020</t>
-  </si>
-  <si>
-    <t>TNFR/NGFR cysteine-rich region</t>
-  </si>
-  <si>
-    <t>  PF13676</t>
-  </si>
-  <si>
-    <t>TIR domain</t>
-  </si>
-  <si>
-    <t>  PF00048</t>
-  </si>
-  <si>
-    <t>Small cytokines (intecrine/chemokine), interleukin-8 like</t>
-  </si>
-  <si>
-    <t>  PF00008</t>
-  </si>
-  <si>
-    <t>EGF-like domain</t>
-  </si>
-  <si>
-    <t>  PF01108</t>
-  </si>
-  <si>
-    <t>Tissue factor</t>
-  </si>
-  <si>
-    <t>  PF09294</t>
-  </si>
-  <si>
-    <t>Interferon-alpha/beta receptor, fibronectin type III</t>
-  </si>
-  <si>
-    <t>  PF00017</t>
-  </si>
-  <si>
-    <t>SH2 domain</t>
-  </si>
-  <si>
-    <t>  PF00969</t>
-  </si>
-  <si>
-    <t>Class II histocompatibility antigen, beta domain</t>
+    <t>  PF00129</t>
+  </si>
+  <si>
+    <t>Class I Histocompatibility antigen, domains alpha 1 and 2</t>
   </si>
   <si>
     <t>  PF00178</t>
@@ -139,22 +163,28 @@
     <t>Ets-domain</t>
   </si>
   <si>
-    <t>  PF01017</t>
-  </si>
-  <si>
-    <t>STAT protein, all-alpha domain</t>
-  </si>
-  <si>
-    <t>  PF02864</t>
-  </si>
-  <si>
-    <t>STAT protein, DNA binding domain</t>
-  </si>
-  <si>
-    <t>  PF02865</t>
-  </si>
-  <si>
-    <t>STAT protein, protein interaction domain</t>
+    <t>  PF00993</t>
+  </si>
+  <si>
+    <t>Class II histocompatibility antigen, alpha domain</t>
+  </si>
+  <si>
+    <t>  PF00001</t>
+  </si>
+  <si>
+    <t>7 transmembrane receptor (rhodopsin family)</t>
+  </si>
+  <si>
+    <t>  PF00023</t>
+  </si>
+  <si>
+    <t>Ankyrin repeat</t>
+  </si>
+  <si>
+    <t>  PF00656</t>
+  </si>
+  <si>
+    <t>Caspase domain</t>
   </si>
   <si>
     <t>  PF07686</t>
@@ -163,28 +193,22 @@
     <t>Immunoglobulin V-set domain</t>
   </si>
   <si>
-    <t>  PF03770</t>
-  </si>
-  <si>
-    <t>Inositol polyphosphate kinase</t>
-  </si>
-  <si>
-    <t>  PF00102</t>
-  </si>
-  <si>
-    <t>Protein-tyrosine phosphatase</t>
+    <t>  PF02198</t>
+  </si>
+  <si>
+    <t>Sterile alpha motif (SAM)/Pointed domain</t>
   </si>
   <si>
     <t>  PF07714</t>
   </si>
   <si>
-    <t>Protein tyrosine kinase</t>
-  </si>
-  <si>
-    <t>  PF00229</t>
-  </si>
-  <si>
-    <t>TNF(Tumour Necrosis Factor) family</t>
+    <t>Protein tyrosine and serine/threonine kinase</t>
+  </si>
+  <si>
+    <t>  PF00018</t>
+  </si>
+  <si>
+    <t>SH3 domain</t>
   </si>
   <si>
     <t>  PF07716</t>
@@ -205,10 +229,10 @@
     <t>Cytochrome b5-like Heme/Steroid binding domain</t>
   </si>
   <si>
-    <t>  PF00018</t>
-  </si>
-  <si>
-    <t>SH3 domain</t>
+    <t>  PF00130</t>
+  </si>
+  <si>
+    <t>Phorbol esters/diacylglycerol binding domain (C1 domain)</t>
   </si>
   <si>
     <t>  PF00169</t>
@@ -230,6 +254,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,13 +278,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -642,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -659,7 +684,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -676,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -693,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -710,7 +735,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -727,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -744,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -761,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -778,7 +803,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -812,7 +837,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -846,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -863,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -880,7 +905,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -897,7 +922,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -914,7 +939,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -948,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="E22" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -965,7 +990,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -999,7 +1024,7 @@
         <v>52</v>
       </c>
       <c r="E25" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1016,7 +1041,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1033,7 +1058,7 @@
         <v>56</v>
       </c>
       <c r="E27" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1050,7 +1075,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1067,7 +1092,7 @@
         <v>60</v>
       </c>
       <c r="E29" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1084,7 +1109,7 @@
         <v>62</v>
       </c>
       <c r="E30" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -1101,7 +1126,75 @@
         <v>64</v>
       </c>
       <c r="E31" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
